--- a/grupos/1EM - Estadisticos 20211.xlsx
+++ b/grupos/1EM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="183">
   <si>
     <t>Materia</t>
   </si>
@@ -218,19 +218,19 @@
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
+    <t>Herrera Serrano Mayra Iliana</t>
+  </si>
+  <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>Herrera Serrano Mayra Iliana</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
     <t>NC</t>
@@ -1055,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1109,7 +1109,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -1121,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y4">
         <v>9</v>
@@ -1132,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1186,7 +1186,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1209,19 +1209,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>9</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W6">
         <v>9</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1286,19 +1286,19 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -1340,19 +1340,19 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U7">
         <v>8</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>8</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>7</v>
@@ -1363,7 +1363,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1417,7 +1417,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>-1</v>
@@ -1440,19 +1440,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1494,19 +1494,19 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W9">
         <v>9</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y9">
         <v>7</v>
@@ -1517,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1571,7 +1571,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>-1</v>
@@ -1594,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1648,7 +1648,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -1671,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1683,7 +1683,7 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -1725,7 +1725,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1748,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -1802,7 +1802,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <v>-1</v>
@@ -1814,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1825,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1879,7 +1879,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U14">
         <v>6</v>
@@ -1902,19 +1902,19 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -1956,19 +1956,19 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U15">
         <v>9</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W15">
         <v>10</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <v>7</v>
@@ -1979,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1991,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>6</v>
@@ -2033,7 +2033,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -2045,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>6</v>
@@ -2056,19 +2056,19 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -2110,19 +2110,19 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <v>9</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W17">
         <v>8</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>8</v>
@@ -2133,13 +2133,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2187,13 +2187,13 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>6</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W18">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -2264,7 +2264,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -2276,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y19">
         <v>6</v>
@@ -2287,19 +2287,19 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -2341,19 +2341,19 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>9</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W20">
         <v>6</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2364,19 +2364,19 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -2418,19 +2418,19 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U21">
         <v>6</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y21">
         <v>-1</v>
@@ -2441,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>-1</v>
@@ -2518,19 +2518,19 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2572,19 +2572,19 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W23">
         <v>6</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>6</v>
@@ -2595,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2649,7 +2649,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>-1</v>
@@ -2672,13 +2672,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -2726,13 +2726,13 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U25">
         <v>7</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W25">
         <v>8</v>
@@ -2749,19 +2749,19 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -2803,19 +2803,19 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <v>10</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y26">
         <v>7</v>
@@ -2826,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -2838,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2880,7 +2880,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U27">
         <v>8</v>
@@ -2892,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y27">
         <v>7</v>
@@ -2903,19 +2903,19 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G28">
         <v>7</v>
@@ -2957,19 +2957,19 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W28">
         <v>10</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>7</v>
@@ -2980,19 +2980,19 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3034,19 +3034,19 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U29">
         <v>8</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W29">
         <v>8</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>6</v>
@@ -3057,19 +3057,19 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -3111,19 +3111,19 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U30">
         <v>10</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W30">
         <v>9</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y30">
         <v>8</v>
@@ -3134,19 +3134,19 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -3188,19 +3188,19 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U31">
         <v>8</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W31">
         <v>9</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3211,19 +3211,19 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -3265,19 +3265,19 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U32">
         <v>8</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W32">
         <v>9</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y32">
         <v>8</v>
@@ -3288,19 +3288,19 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -3342,19 +3342,19 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U33">
         <v>10</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W33">
         <v>9</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y33">
         <v>7</v>
@@ -3365,19 +3365,19 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -3419,19 +3419,19 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U34">
         <v>9</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W34">
         <v>10</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>6</v>
@@ -3442,7 +3442,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -3454,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>7</v>
@@ -3496,7 +3496,7 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U35">
         <v>9</v>
@@ -3508,7 +3508,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>7</v>
@@ -3519,19 +3519,19 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>8</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>9</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -3573,19 +3573,19 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U36">
         <v>8</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W36">
         <v>9</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y36">
         <v>8</v>
@@ -3596,19 +3596,19 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>9</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -3650,19 +3650,19 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U37">
         <v>8</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W37">
         <v>9</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y37">
         <v>6</v>
@@ -3673,19 +3673,19 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G38">
         <v>9</v>
@@ -3727,19 +3727,19 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U38">
         <v>10</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W38">
         <v>10</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y38">
         <v>9</v>
@@ -3750,7 +3750,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -3762,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -3804,7 +3804,7 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U39">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -3827,7 +3827,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -3881,7 +3881,7 @@
         <v>-1</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U40">
         <v>8</v>
@@ -3904,7 +3904,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -3958,7 +3958,7 @@
         <v>-1</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U41">
         <v>-1</v>
@@ -3981,7 +3981,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>-1</v>
@@ -4035,7 +4035,7 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U42">
         <v>-1</v>
@@ -4058,19 +4058,19 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>9</v>
       </c>
       <c r="F43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -4112,19 +4112,19 @@
         <v>-1</v>
       </c>
       <c r="T43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U43">
         <v>-1</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W43">
         <v>9</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y43">
         <v>6</v>
@@ -4135,19 +4135,19 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>-1</v>
       </c>
       <c r="D44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>9</v>
       </c>
       <c r="F44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>6</v>
@@ -4189,19 +4189,19 @@
         <v>-1</v>
       </c>
       <c r="T44">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U44">
         <v>-1</v>
       </c>
       <c r="V44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W44">
         <v>9</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y44">
         <v>6</v>
@@ -4212,7 +4212,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -4224,7 +4224,7 @@
         <v>-1</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G45">
         <v>7</v>
@@ -4266,7 +4266,7 @@
         <v>-1</v>
       </c>
       <c r="T45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U45">
         <v>7</v>
@@ -4278,7 +4278,7 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y45">
         <v>7</v>
@@ -4289,19 +4289,19 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -4343,19 +4343,19 @@
         <v>-1</v>
       </c>
       <c r="T46">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U46">
         <v>10</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W46">
         <v>8</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y46">
         <v>8</v>
@@ -4366,7 +4366,7 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -4378,7 +4378,7 @@
         <v>-1</v>
       </c>
       <c r="F47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G47">
         <v>6</v>
@@ -4420,7 +4420,7 @@
         <v>-1</v>
       </c>
       <c r="T47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U47">
         <v>6</v>
@@ -4432,7 +4432,7 @@
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y47">
         <v>6</v>
@@ -4503,27 +4503,30 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.4</v>
+      </c>
       <c r="I2">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -4532,22 +4535,25 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>72.73</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.1</v>
+      </c>
       <c r="I3">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4561,27 +4567,30 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>7.4</v>
+      </c>
       <c r="I4">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -4590,13 +4599,13 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>72.73</v>
+        <v>79.55</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4605,15 +4614,15 @@
         <v>8.1</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>27.27</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -4622,30 +4631,30 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>79.55</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>20.45</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -4654,25 +4663,25 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>86.36</v>
+      </c>
+      <c r="G7">
+        <v>13.64</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>81.81999999999999</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6.8</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>18.18</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4738,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4769,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4789,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4809,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4849,7 +4858,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4889,7 +4898,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4909,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4929,7 +4938,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4969,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5009,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5029,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5049,7 +5058,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5089,7 +5098,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5129,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5149,7 +5158,7 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5169,7 +5178,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5209,7 +5218,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5249,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5269,7 +5278,7 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5289,7 +5298,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5329,7 +5338,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5369,7 +5378,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5389,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5409,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5449,7 +5458,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5489,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5509,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5529,7 +5538,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5569,7 +5578,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5609,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5629,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5649,7 +5658,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5689,7 +5698,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5729,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5749,7 +5758,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5769,7 +5778,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5809,7 +5818,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5849,7 +5858,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5869,7 +5878,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5889,7 +5898,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5929,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5969,7 +5978,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5989,7 +5998,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6009,7 +6018,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6049,7 +6058,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6089,7 +6098,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6109,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6129,7 +6138,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6169,7 +6178,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6209,7 +6218,7 @@
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6229,7 +6238,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6249,7 +6258,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6289,7 +6298,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6329,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6349,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6369,7 +6378,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6409,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6449,7 +6458,7 @@
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6469,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6489,7 +6498,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6529,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6569,7 +6578,7 @@
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6589,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6609,7 +6618,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6649,7 +6658,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6689,7 +6698,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6709,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6729,7 +6738,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6769,7 +6778,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6809,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6829,7 +6838,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6849,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6889,7 +6898,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6929,7 +6938,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6949,7 +6958,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6969,7 +6978,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7009,7 +7018,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7049,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7069,7 +7078,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7089,7 +7098,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7129,7 +7138,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7169,7 +7178,7 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7189,7 +7198,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7209,7 +7218,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7249,7 +7258,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7289,7 +7298,7 @@
         <v>5</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7309,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7329,7 +7338,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7369,7 +7378,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7409,7 +7418,7 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7429,7 +7438,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7449,7 +7458,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7489,7 +7498,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7529,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7549,7 +7558,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7569,7 +7578,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7609,7 +7618,7 @@
         <v>8</v>
       </c>
       <c r="F146" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7649,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="F148" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7669,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7689,7 +7698,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7729,7 +7738,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7769,7 +7778,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7789,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7809,7 +7818,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7849,7 +7858,7 @@
         <v>8</v>
       </c>
       <c r="F158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7889,7 +7898,7 @@
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7909,7 +7918,7 @@
         <v>6</v>
       </c>
       <c r="F161" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7929,7 +7938,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7969,7 +7978,7 @@
         <v>8</v>
       </c>
       <c r="F164" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -8009,7 +8018,7 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -8029,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="F167" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -8049,7 +8058,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -8089,7 +8098,7 @@
         <v>8</v>
       </c>
       <c r="F170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -8129,7 +8138,7 @@
         <v>5</v>
       </c>
       <c r="F172" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8149,7 +8158,7 @@
         <v>6</v>
       </c>
       <c r="F173" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8169,7 +8178,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -8209,7 +8218,7 @@
         <v>8</v>
       </c>
       <c r="F176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -8249,7 +8258,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -8269,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="F179" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -8289,7 +8298,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -8329,7 +8338,7 @@
         <v>8</v>
       </c>
       <c r="F182" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -8369,7 +8378,7 @@
         <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -8389,7 +8398,7 @@
         <v>6</v>
       </c>
       <c r="F185" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -8409,7 +8418,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8449,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -8489,7 +8498,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -8509,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="F191" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8529,7 +8538,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8569,7 +8578,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8609,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8629,7 +8638,7 @@
         <v>6</v>
       </c>
       <c r="F197" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8649,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8689,7 +8698,7 @@
         <v>8</v>
       </c>
       <c r="F200" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8729,7 +8738,7 @@
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8749,7 +8758,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8769,7 +8778,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8809,7 +8818,7 @@
         <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8849,7 +8858,7 @@
         <v>5</v>
       </c>
       <c r="F208" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8869,7 +8878,7 @@
         <v>6</v>
       </c>
       <c r="F209" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8889,7 +8898,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8929,7 +8938,7 @@
         <v>8</v>
       </c>
       <c r="F212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8969,7 +8978,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8989,7 +8998,7 @@
         <v>6</v>
       </c>
       <c r="F215" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -9009,7 +9018,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -9049,7 +9058,7 @@
         <v>8</v>
       </c>
       <c r="F218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -9089,7 +9098,7 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -9109,7 +9118,7 @@
         <v>6</v>
       </c>
       <c r="F221" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -9129,7 +9138,7 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9169,7 +9178,7 @@
         <v>8</v>
       </c>
       <c r="F224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -9209,7 +9218,7 @@
         <v>5</v>
       </c>
       <c r="F226" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -9229,7 +9238,7 @@
         <v>6</v>
       </c>
       <c r="F227" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -9249,7 +9258,7 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -9289,7 +9298,7 @@
         <v>8</v>
       </c>
       <c r="F230" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -9329,7 +9338,7 @@
         <v>5</v>
       </c>
       <c r="F232" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -9349,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -9369,7 +9378,7 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9409,7 +9418,7 @@
         <v>8</v>
       </c>
       <c r="F236" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -9449,7 +9458,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -9469,7 +9478,7 @@
         <v>6</v>
       </c>
       <c r="F239" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -9489,7 +9498,7 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -9529,7 +9538,7 @@
         <v>8</v>
       </c>
       <c r="F242" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9569,7 +9578,7 @@
         <v>5</v>
       </c>
       <c r="F244" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9589,7 +9598,7 @@
         <v>6</v>
       </c>
       <c r="F245" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9609,7 +9618,7 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9649,7 +9658,7 @@
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9689,7 +9698,7 @@
         <v>5</v>
       </c>
       <c r="F250" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9709,7 +9718,7 @@
         <v>6</v>
       </c>
       <c r="F251" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9729,7 +9738,7 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9769,7 +9778,7 @@
         <v>8</v>
       </c>
       <c r="F254" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9809,7 +9818,7 @@
         <v>5</v>
       </c>
       <c r="F256" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9829,7 +9838,7 @@
         <v>6</v>
       </c>
       <c r="F257" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9849,7 +9858,7 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9889,7 +9898,7 @@
         <v>8</v>
       </c>
       <c r="F260" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9929,7 +9938,7 @@
         <v>5</v>
       </c>
       <c r="F262" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9949,7 +9958,7 @@
         <v>6</v>
       </c>
       <c r="F263" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9969,7 +9978,7 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -10781,7 +10790,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10814,6 +10823,696 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920297</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920306</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21330051920306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21330051920323</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21330051920324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21330051920324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21330051920327</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21330051920327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>21330051920328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>21330051920328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>21330051920330</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>21330051920330</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21330051920291</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21330051920298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>21330051920301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>21330051920303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>21330051920305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>21330051920308</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>21330051920311</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>21330051920312</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>21330051920319</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>21330051920326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/1EM - Estadisticos 20211.xlsx
+++ b/grupos/1EM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="180">
   <si>
     <t>Materia</t>
   </si>
@@ -167,9 +167,6 @@
     <t>ROMERO SANCHEZ DIEGO EMILIO</t>
   </si>
   <si>
-    <t>SALAZAR HERNANDEZ LUIS GUILLERMO</t>
-  </si>
-  <si>
     <t>SANCHEZ NIETO YULIANA YAMILETT</t>
   </si>
   <si>
@@ -221,15 +218,15 @@
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Herrera Serrano Mayra Iliana</t>
   </si>
   <si>
-    <t>García Sánchez Magda Bexabe</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -248,33 +245,180 @@
     <t>APALE</t>
   </si>
   <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>NEGRETE</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>VILLASEÑOR</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>CARLOS EMILIO</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>ATZIRI</t>
+  </si>
+  <si>
+    <t>EDNA</t>
+  </si>
+  <si>
+    <t>AMISADAI</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>DARLA MARLENE</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>ANETTE JOCELYN</t>
+  </si>
+  <si>
+    <t>JOSE RAFAEL</t>
+  </si>
+  <si>
+    <t>ADAL</t>
+  </si>
+  <si>
+    <t>MONICA AIME</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>SAYURI BETSABE</t>
+  </si>
+  <si>
+    <t>ANDRIK YOSIMAR</t>
+  </si>
+  <si>
+    <t>YULIANA YAMILETT</t>
+  </si>
+  <si>
+    <t>IVANNA DANIELA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>KARINA YOSELIN</t>
+  </si>
+  <si>
+    <t>ROSA ITZEL</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>BALDERAS</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -284,36 +428,12 @@
     <t>HUERTA</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>JUSTO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MOTA</t>
   </si>
   <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
     <t>ORTIZ</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
     <t>PALAFOX</t>
   </si>
   <si>
@@ -326,9 +446,6 @@
     <t>PLIEGO</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
@@ -338,48 +455,12 @@
     <t>ROMERO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
     <t>CID</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
     <t>TINOCO</t>
   </si>
   <si>
@@ -389,21 +470,12 @@
     <t>TIBURCIO</t>
   </si>
   <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>NEGRETE</t>
-  </si>
-  <si>
     <t>ZARATE</t>
   </si>
   <si>
     <t>CERON</t>
   </si>
   <si>
-    <t>VILLASEÑOR</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
@@ -425,54 +497,18 @@
     <t>ALVAREZ</t>
   </si>
   <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>NIETO</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
     <t>VENTURA</t>
   </si>
   <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
     <t>JAZMIN</t>
   </si>
   <si>
-    <t>RUTH</t>
-  </si>
-  <si>
     <t>AXEL EDUARDO</t>
   </si>
   <si>
     <t>VANESSA</t>
   </si>
   <si>
-    <t>CARLOS EMILIO</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>ATZIRI</t>
-  </si>
-  <si>
-    <t>EDNA</t>
-  </si>
-  <si>
-    <t>AMISADAI</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
     <t>AMY JULIET</t>
   </si>
   <si>
@@ -485,36 +521,15 @@
     <t>YULIET</t>
   </si>
   <si>
-    <t>DARLA MARLENE</t>
-  </si>
-  <si>
-    <t>MARIA MICHELLE</t>
-  </si>
-  <si>
-    <t>ANETTE JOCELYN</t>
-  </si>
-  <si>
-    <t>JOSE RAFAEL</t>
-  </si>
-  <si>
     <t>DIANA CRISTINA</t>
   </si>
   <si>
     <t>ANGEL DIEGO</t>
   </si>
   <si>
-    <t>ADAL</t>
-  </si>
-  <si>
     <t>SAIRA LEILANI</t>
   </si>
   <si>
-    <t>MONICA AIME</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
     <t>LUIS ANGEL</t>
   </si>
   <si>
@@ -530,9 +545,6 @@
     <t>BRIGITTE</t>
   </si>
   <si>
-    <t>SAYURI BETSABE</t>
-  </si>
-  <si>
     <t>ANA KAREN</t>
   </si>
   <si>
@@ -545,28 +557,7 @@
     <t>DIEGO EMILIO</t>
   </si>
   <si>
-    <t>ANDRIK YOSIMAR</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO</t>
-  </si>
-  <si>
-    <t>YULIANA YAMILETT</t>
-  </si>
-  <si>
-    <t>IVANNA DANIELA</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>KARINA YOSELIN</t>
-  </si>
-  <si>
     <t>LIZETH</t>
-  </si>
-  <si>
-    <t>ROSA ITZEL</t>
   </si>
 </sst>
 </file>
@@ -924,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1985,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -2039,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W16">
         <v>7</v>
@@ -2145,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -2199,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>6</v>
@@ -2684,7 +2675,7 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -2738,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y25">
         <v>6</v>
@@ -3833,13 +3824,13 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="F40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -3887,13 +3878,13 @@
         <v>8</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W40">
         <v>10</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -3981,22 +3972,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H42">
         <v>-1</v>
@@ -4035,22 +4026,22 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>-1</v>
       </c>
       <c r="V42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4058,19 +4049,19 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>9</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -4112,19 +4103,19 @@
         <v>-1</v>
       </c>
       <c r="T43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U43">
         <v>-1</v>
       </c>
       <c r="V43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W43">
         <v>9</v>
       </c>
       <c r="X43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y43">
         <v>6</v>
@@ -4135,22 +4126,22 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>-1</v>
@@ -4189,22 +4180,22 @@
         <v>-1</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U44">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V44">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4212,22 +4203,22 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <v>-1</v>
@@ -4266,22 +4257,22 @@
         <v>-1</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X45">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y45">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4289,22 +4280,22 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H46">
         <v>-1</v>
@@ -4343,98 +4334,21 @@
         <v>-1</v>
       </c>
       <c r="T46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V46">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47">
-        <v>6</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-      <c r="F47">
-        <v>6</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47">
-        <v>-1</v>
-      </c>
-      <c r="K47">
-        <v>-1</v>
-      </c>
-      <c r="L47">
-        <v>-1</v>
-      </c>
-      <c r="M47">
-        <v>-1</v>
-      </c>
-      <c r="N47">
-        <v>-1</v>
-      </c>
-      <c r="O47">
-        <v>-1</v>
-      </c>
-      <c r="P47">
-        <v>-1</v>
-      </c>
-      <c r="Q47">
-        <v>-1</v>
-      </c>
-      <c r="R47">
-        <v>-1</v>
-      </c>
-      <c r="S47">
-        <v>-1</v>
-      </c>
-      <c r="T47">
-        <v>6</v>
-      </c>
-      <c r="U47">
-        <v>6</v>
-      </c>
-      <c r="V47">
-        <v>-1</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
-      <c r="X47">
-        <v>6</v>
-      </c>
-      <c r="Y47">
         <v>6</v>
       </c>
     </row>
@@ -4465,31 +4379,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4497,19 +4411,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>54.55</v>
+        <v>60.47</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4518,10 +4432,10 @@
         <v>7.4</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>45.45</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4529,10 +4443,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -4541,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>72.73</v>
+        <v>74.42</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4550,85 +4464,85 @@
         <v>8.1</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>27.27</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>79.55</v>
+        <v>83.72</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>20.45</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>36</v>
@@ -4637,19 +4551,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>81.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>18.18</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4657,25 +4571,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>38</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="G7">
-        <v>13.64</v>
+        <v>11.63</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4691,7 +4605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4703,16 +4617,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -4726,19 +4640,19 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4746,16 +4660,16 @@
         <v>21330051920289</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
@@ -4766,96 +4680,96 @@
         <v>21330051920289</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>21330051920289</v>
+        <v>21330051920291</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>21330051920289</v>
+        <v>21330051920294</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" t="s">
-        <v>140</v>
-      </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>21330051920289</v>
+        <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
-        <v>140</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>21330051920290</v>
+        <v>21330051920294</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>68</v>
@@ -4863,59 +4777,59 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>21330051920290</v>
+        <v>21330051920295</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>21330051920290</v>
+        <v>21330051920295</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>21330051920290</v>
+        <v>21330051920296</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>66</v>
@@ -4923,279 +4837,279 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>21330051920290</v>
+        <v>21330051920296</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>21330051920290</v>
+        <v>21330051920296</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>21330051920291</v>
+        <v>21330051920296</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>21330051920291</v>
+        <v>21330051920296</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>21330051920291</v>
+        <v>21330051920297</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>21330051920291</v>
+        <v>21330051920297</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>21330051920291</v>
+        <v>21330051920298</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>21330051920291</v>
+        <v>21330051920299</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="D19" t="s">
-        <v>142</v>
-      </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>21330051920292</v>
+        <v>21330051920299</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>21330051920292</v>
+        <v>21330051920304</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21330051920292</v>
+        <v>21330051920304</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>21330051920292</v>
+        <v>21330051920305</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>21330051920292</v>
+        <v>21330051920306</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>21330051920292</v>
+        <v>21330051920306</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>67</v>
@@ -5203,159 +5117,159 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>21330051920293</v>
+        <v>20330051920235</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>21330051920293</v>
+        <v>20330051920235</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>21330051920293</v>
+        <v>20330051920235</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21330051920293</v>
+        <v>20330051920235</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>21330051920293</v>
+        <v>20330051920235</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>21330051920293</v>
+        <v>21330051920309</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>21330051920294</v>
+        <v>21330051920309</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>21330051920294</v>
+        <v>21330051920309</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -5363,159 +5277,159 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>21330051920294</v>
+        <v>21330051920309</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>21330051920294</v>
+        <v>21330051920309</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>21330051920294</v>
+        <v>21330051920311</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920294</v>
+        <v>21330051920312</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920295</v>
+        <v>21330051920319</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>21330051920295</v>
+        <v>21330051920324</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920295</v>
+        <v>21330051920324</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>21330051920295</v>
+        <v>21330051920325</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
         <v>66</v>
@@ -5523,4482 +5437,202 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>21330051920295</v>
+        <v>21330051920325</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>21330051920295</v>
+        <v>21330051920325</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>21330051920296</v>
+        <v>21330051920325</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920296</v>
+        <v>21330051920325</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920296</v>
+        <v>21330051920326</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920296</v>
+        <v>21330051920327</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>21330051920296</v>
+        <v>21330051920328</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920296</v>
+        <v>21330051920328</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>21330051920297</v>
+        <v>21330051920330</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>21330051920297</v>
+        <v>21330051920330</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>21330051920297</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>21330051920297</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>21330051920297</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>21330051920297</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>21330051920298</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>21330051920298</v>
-      </c>
-      <c r="B57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>21330051920298</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>21330051920298</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>21330051920298</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>21330051920298</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>21330051920299</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>21330051920299</v>
-      </c>
-      <c r="B63" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>21330051920299</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>21330051920299</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>21330051920299</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>21330051920299</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>21330051920300</v>
-      </c>
-      <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>21330051920300</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>21330051920300</v>
-      </c>
-      <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>21330051920300</v>
-      </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>21330051920300</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>21330051920300</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>21330051920301</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>21330051920301</v>
-      </c>
-      <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>21330051920301</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>21330051920301</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>21330051920301</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>21330051920301</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>21330051920302</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>21330051920302</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>21330051920302</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" t="s">
-        <v>153</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>21330051920302</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>153</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>21330051920302</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>21330051920302</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" t="s">
-        <v>153</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>21330051920303</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21330051920303</v>
-      </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>21330051920303</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>21330051920303</v>
-      </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>21330051920303</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>21330051920303</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" t="s">
-        <v>154</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>21330051920304</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" t="s">
-        <v>155</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>21330051920304</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>21330051920304</v>
-      </c>
-      <c r="B94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" t="s">
-        <v>123</v>
-      </c>
-      <c r="D94" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>21330051920304</v>
-      </c>
-      <c r="B95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>21330051920304</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" t="s">
-        <v>155</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>21330051920304</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>21330051920305</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" t="s">
-        <v>156</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>21330051920305</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" t="s">
-        <v>124</v>
-      </c>
-      <c r="D99" t="s">
-        <v>156</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>21330051920305</v>
-      </c>
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" t="s">
-        <v>156</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>21330051920305</v>
-      </c>
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>124</v>
-      </c>
-      <c r="D101" t="s">
-        <v>156</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>21330051920305</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>124</v>
-      </c>
-      <c r="D102" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>21330051920305</v>
-      </c>
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103" t="s">
-        <v>156</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>21330051920306</v>
-      </c>
-      <c r="B104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" t="s">
-        <v>157</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>21330051920306</v>
-      </c>
-      <c r="B105" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>21330051920306</v>
-      </c>
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" t="s">
-        <v>157</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>21330051920306</v>
-      </c>
-      <c r="B107" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>21330051920306</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C108" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>21330051920306</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" t="s">
-        <v>102</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920235</v>
-      </c>
-      <c r="B110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" t="s">
-        <v>158</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920235</v>
-      </c>
-      <c r="B111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920235</v>
-      </c>
-      <c r="B112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" t="s">
-        <v>158</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920235</v>
-      </c>
-      <c r="B113" t="s">
-        <v>90</v>
-      </c>
-      <c r="C113" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920235</v>
-      </c>
-      <c r="B114" t="s">
-        <v>90</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920235</v>
-      </c>
-      <c r="B115" t="s">
-        <v>90</v>
-      </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>21330051920307</v>
-      </c>
-      <c r="B116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" t="s">
-        <v>125</v>
-      </c>
-      <c r="D116" t="s">
-        <v>159</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>21330051920307</v>
-      </c>
-      <c r="B117" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>21330051920307</v>
-      </c>
-      <c r="B118" t="s">
-        <v>91</v>
-      </c>
-      <c r="C118" t="s">
-        <v>125</v>
-      </c>
-      <c r="D118" t="s">
-        <v>159</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>21330051920307</v>
-      </c>
-      <c r="B119" t="s">
-        <v>91</v>
-      </c>
-      <c r="C119" t="s">
-        <v>125</v>
-      </c>
-      <c r="D119" t="s">
-        <v>159</v>
-      </c>
-      <c r="E119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>21330051920307</v>
-      </c>
-      <c r="B120" t="s">
-        <v>91</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" t="s">
-        <v>159</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>21330051920307</v>
-      </c>
-      <c r="B121" t="s">
-        <v>91</v>
-      </c>
-      <c r="C121" t="s">
-        <v>125</v>
-      </c>
-      <c r="D121" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>21330051920308</v>
-      </c>
-      <c r="B122" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" t="s">
-        <v>160</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>21330051920308</v>
-      </c>
-      <c r="B123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C123" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" t="s">
-        <v>160</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>21330051920308</v>
-      </c>
-      <c r="B124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" t="s">
-        <v>126</v>
-      </c>
-      <c r="D124" t="s">
-        <v>160</v>
-      </c>
-      <c r="E124" t="s">
-        <v>5</v>
-      </c>
-      <c r="F124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>21330051920308</v>
-      </c>
-      <c r="B125" t="s">
-        <v>92</v>
-      </c>
-      <c r="C125" t="s">
-        <v>126</v>
-      </c>
-      <c r="D125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>21330051920308</v>
-      </c>
-      <c r="B126" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" t="s">
-        <v>126</v>
-      </c>
-      <c r="D126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>21330051920308</v>
-      </c>
-      <c r="B127" t="s">
-        <v>92</v>
-      </c>
-      <c r="C127" t="s">
-        <v>126</v>
-      </c>
-      <c r="D127" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>21330051920309</v>
-      </c>
-      <c r="B128" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" t="s">
-        <v>161</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>21330051920309</v>
-      </c>
-      <c r="B129" t="s">
-        <v>93</v>
-      </c>
-      <c r="C129" t="s">
-        <v>97</v>
-      </c>
-      <c r="D129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>21330051920309</v>
-      </c>
-      <c r="B130" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D130" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>21330051920309</v>
-      </c>
-      <c r="B131" t="s">
-        <v>93</v>
-      </c>
-      <c r="C131" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>21330051920309</v>
-      </c>
-      <c r="B132" t="s">
-        <v>93</v>
-      </c>
-      <c r="C132" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>21330051920309</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" t="s">
-        <v>161</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>21330051920310</v>
-      </c>
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" t="s">
-        <v>104</v>
-      </c>
-      <c r="D134" t="s">
-        <v>162</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>21330051920310</v>
-      </c>
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C135" t="s">
-        <v>104</v>
-      </c>
-      <c r="D135" t="s">
-        <v>162</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>21330051920310</v>
-      </c>
-      <c r="B136" t="s">
-        <v>94</v>
-      </c>
-      <c r="C136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D136" t="s">
-        <v>162</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>21330051920310</v>
-      </c>
-      <c r="B137" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" t="s">
-        <v>162</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>21330051920310</v>
-      </c>
-      <c r="B138" t="s">
-        <v>94</v>
-      </c>
-      <c r="C138" t="s">
-        <v>104</v>
-      </c>
-      <c r="D138" t="s">
-        <v>162</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>21330051920310</v>
-      </c>
-      <c r="B139" t="s">
-        <v>94</v>
-      </c>
-      <c r="C139" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" t="s">
-        <v>162</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>21330051920311</v>
-      </c>
-      <c r="B140" t="s">
-        <v>95</v>
-      </c>
-      <c r="C140" t="s">
-        <v>127</v>
-      </c>
-      <c r="D140" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>21330051920311</v>
-      </c>
-      <c r="B141" t="s">
-        <v>95</v>
-      </c>
-      <c r="C141" t="s">
-        <v>127</v>
-      </c>
-      <c r="D141" t="s">
-        <v>163</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>21330051920311</v>
-      </c>
-      <c r="B142" t="s">
-        <v>95</v>
-      </c>
-      <c r="C142" t="s">
-        <v>127</v>
-      </c>
-      <c r="D142" t="s">
-        <v>163</v>
-      </c>
-      <c r="E142" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>21330051920311</v>
-      </c>
-      <c r="B143" t="s">
-        <v>95</v>
-      </c>
-      <c r="C143" t="s">
-        <v>127</v>
-      </c>
-      <c r="D143" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>21330051920311</v>
-      </c>
-      <c r="B144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C144" t="s">
-        <v>127</v>
-      </c>
-      <c r="D144" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>21330051920311</v>
-      </c>
-      <c r="B145" t="s">
-        <v>95</v>
-      </c>
-      <c r="C145" t="s">
-        <v>127</v>
-      </c>
-      <c r="D145" t="s">
-        <v>163</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>21330051920312</v>
-      </c>
-      <c r="B146" t="s">
-        <v>96</v>
-      </c>
-      <c r="C146" t="s">
-        <v>108</v>
-      </c>
-      <c r="D146" t="s">
-        <v>164</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>21330051920312</v>
-      </c>
-      <c r="B147" t="s">
-        <v>96</v>
-      </c>
-      <c r="C147" t="s">
-        <v>108</v>
-      </c>
-      <c r="D147" t="s">
-        <v>164</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>21330051920312</v>
-      </c>
-      <c r="B148" t="s">
-        <v>96</v>
-      </c>
-      <c r="C148" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" t="s">
-        <v>164</v>
-      </c>
-      <c r="E148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F148" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>21330051920312</v>
-      </c>
-      <c r="B149" t="s">
-        <v>96</v>
-      </c>
-      <c r="C149" t="s">
-        <v>108</v>
-      </c>
-      <c r="D149" t="s">
-        <v>164</v>
-      </c>
-      <c r="E149" t="s">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>21330051920312</v>
-      </c>
-      <c r="B150" t="s">
-        <v>96</v>
-      </c>
-      <c r="C150" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" t="s">
-        <v>164</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>21330051920312</v>
-      </c>
-      <c r="B151" t="s">
-        <v>96</v>
-      </c>
-      <c r="C151" t="s">
-        <v>108</v>
-      </c>
-      <c r="D151" t="s">
-        <v>164</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>21330051920313</v>
-      </c>
-      <c r="B152" t="s">
-        <v>97</v>
-      </c>
-      <c r="C152" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" t="s">
-        <v>165</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>21330051920313</v>
-      </c>
-      <c r="B153" t="s">
-        <v>97</v>
-      </c>
-      <c r="C153" t="s">
-        <v>93</v>
-      </c>
-      <c r="D153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>21330051920313</v>
-      </c>
-      <c r="B154" t="s">
-        <v>97</v>
-      </c>
-      <c r="C154" t="s">
-        <v>93</v>
-      </c>
-      <c r="D154" t="s">
-        <v>165</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>21330051920313</v>
-      </c>
-      <c r="B155" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" t="s">
-        <v>93</v>
-      </c>
-      <c r="D155" t="s">
-        <v>165</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>21330051920313</v>
-      </c>
-      <c r="B156" t="s">
-        <v>97</v>
-      </c>
-      <c r="C156" t="s">
-        <v>93</v>
-      </c>
-      <c r="D156" t="s">
-        <v>165</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>21330051920313</v>
-      </c>
-      <c r="B157" t="s">
-        <v>97</v>
-      </c>
-      <c r="C157" t="s">
-        <v>93</v>
-      </c>
-      <c r="D157" t="s">
-        <v>165</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>21330051920314</v>
-      </c>
-      <c r="B158" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" t="s">
-        <v>92</v>
-      </c>
-      <c r="D158" t="s">
-        <v>166</v>
-      </c>
-      <c r="E158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>21330051920314</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-      <c r="C159" t="s">
-        <v>92</v>
-      </c>
-      <c r="D159" t="s">
-        <v>166</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>21330051920314</v>
-      </c>
-      <c r="B160" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" t="s">
-        <v>92</v>
-      </c>
-      <c r="D160" t="s">
-        <v>166</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>21330051920314</v>
-      </c>
-      <c r="B161" t="s">
-        <v>98</v>
-      </c>
-      <c r="C161" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" t="s">
-        <v>166</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>21330051920314</v>
-      </c>
-      <c r="B162" t="s">
-        <v>98</v>
-      </c>
-      <c r="C162" t="s">
-        <v>92</v>
-      </c>
-      <c r="D162" t="s">
-        <v>166</v>
-      </c>
-      <c r="E162" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>21330051920314</v>
-      </c>
-      <c r="B163" t="s">
-        <v>98</v>
-      </c>
-      <c r="C163" t="s">
-        <v>92</v>
-      </c>
-      <c r="D163" t="s">
-        <v>166</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>21330051920315</v>
-      </c>
-      <c r="B164" t="s">
-        <v>99</v>
-      </c>
-      <c r="C164" t="s">
-        <v>128</v>
-      </c>
-      <c r="D164" t="s">
-        <v>167</v>
-      </c>
-      <c r="E164" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>21330051920315</v>
-      </c>
-      <c r="B165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" t="s">
-        <v>128</v>
-      </c>
-      <c r="D165" t="s">
-        <v>167</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>21330051920315</v>
-      </c>
-      <c r="B166" t="s">
-        <v>99</v>
-      </c>
-      <c r="C166" t="s">
-        <v>128</v>
-      </c>
-      <c r="D166" t="s">
-        <v>167</v>
-      </c>
-      <c r="E166" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>21330051920315</v>
-      </c>
-      <c r="B167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C167" t="s">
-        <v>128</v>
-      </c>
-      <c r="D167" t="s">
-        <v>167</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-      <c r="F167" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>21330051920315</v>
-      </c>
-      <c r="B168" t="s">
-        <v>99</v>
-      </c>
-      <c r="C168" t="s">
-        <v>128</v>
-      </c>
-      <c r="D168" t="s">
-        <v>167</v>
-      </c>
-      <c r="E168" t="s">
-        <v>10</v>
-      </c>
-      <c r="F168" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>21330051920315</v>
-      </c>
-      <c r="B169" t="s">
-        <v>99</v>
-      </c>
-      <c r="C169" t="s">
-        <v>128</v>
-      </c>
-      <c r="D169" t="s">
-        <v>167</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>21330051920316</v>
-      </c>
-      <c r="B170" t="s">
-        <v>100</v>
-      </c>
-      <c r="C170" t="s">
-        <v>129</v>
-      </c>
-      <c r="D170" t="s">
-        <v>165</v>
-      </c>
-      <c r="E170" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>21330051920316</v>
-      </c>
-      <c r="B171" t="s">
-        <v>100</v>
-      </c>
-      <c r="C171" t="s">
-        <v>129</v>
-      </c>
-      <c r="D171" t="s">
-        <v>165</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>21330051920316</v>
-      </c>
-      <c r="B172" t="s">
-        <v>100</v>
-      </c>
-      <c r="C172" t="s">
-        <v>129</v>
-      </c>
-      <c r="D172" t="s">
-        <v>165</v>
-      </c>
-      <c r="E172" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>21330051920316</v>
-      </c>
-      <c r="B173" t="s">
-        <v>100</v>
-      </c>
-      <c r="C173" t="s">
-        <v>129</v>
-      </c>
-      <c r="D173" t="s">
-        <v>165</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>21330051920316</v>
-      </c>
-      <c r="B174" t="s">
-        <v>100</v>
-      </c>
-      <c r="C174" t="s">
-        <v>129</v>
-      </c>
-      <c r="D174" t="s">
-        <v>165</v>
-      </c>
-      <c r="E174" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>21330051920316</v>
-      </c>
-      <c r="B175" t="s">
-        <v>100</v>
-      </c>
-      <c r="C175" t="s">
-        <v>129</v>
-      </c>
-      <c r="D175" t="s">
-        <v>165</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>21330051920317</v>
-      </c>
-      <c r="B176" t="s">
-        <v>101</v>
-      </c>
-      <c r="C176" t="s">
-        <v>130</v>
-      </c>
-      <c r="D176" t="s">
-        <v>168</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>21330051920317</v>
-      </c>
-      <c r="B177" t="s">
-        <v>101</v>
-      </c>
-      <c r="C177" t="s">
-        <v>130</v>
-      </c>
-      <c r="D177" t="s">
-        <v>168</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>21330051920317</v>
-      </c>
-      <c r="B178" t="s">
-        <v>101</v>
-      </c>
-      <c r="C178" t="s">
-        <v>130</v>
-      </c>
-      <c r="D178" t="s">
-        <v>168</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>21330051920317</v>
-      </c>
-      <c r="B179" t="s">
-        <v>101</v>
-      </c>
-      <c r="C179" t="s">
-        <v>130</v>
-      </c>
-      <c r="D179" t="s">
-        <v>168</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>21330051920317</v>
-      </c>
-      <c r="B180" t="s">
-        <v>101</v>
-      </c>
-      <c r="C180" t="s">
-        <v>130</v>
-      </c>
-      <c r="D180" t="s">
-        <v>168</v>
-      </c>
-      <c r="E180" t="s">
-        <v>10</v>
-      </c>
-      <c r="F180" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>21330051920317</v>
-      </c>
-      <c r="B181" t="s">
-        <v>101</v>
-      </c>
-      <c r="C181" t="s">
-        <v>130</v>
-      </c>
-      <c r="D181" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>21330051920318</v>
-      </c>
-      <c r="B182" t="s">
-        <v>102</v>
-      </c>
-      <c r="C182" t="s">
-        <v>131</v>
-      </c>
-      <c r="D182" t="s">
-        <v>169</v>
-      </c>
-      <c r="E182" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>21330051920318</v>
-      </c>
-      <c r="B183" t="s">
-        <v>102</v>
-      </c>
-      <c r="C183" t="s">
-        <v>131</v>
-      </c>
-      <c r="D183" t="s">
-        <v>169</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>21330051920318</v>
-      </c>
-      <c r="B184" t="s">
-        <v>102</v>
-      </c>
-      <c r="C184" t="s">
-        <v>131</v>
-      </c>
-      <c r="D184" t="s">
-        <v>169</v>
-      </c>
-      <c r="E184" t="s">
-        <v>5</v>
-      </c>
-      <c r="F184" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>21330051920318</v>
-      </c>
-      <c r="B185" t="s">
-        <v>102</v>
-      </c>
-      <c r="C185" t="s">
-        <v>131</v>
-      </c>
-      <c r="D185" t="s">
-        <v>169</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>21330051920318</v>
-      </c>
-      <c r="B186" t="s">
-        <v>102</v>
-      </c>
-      <c r="C186" t="s">
-        <v>131</v>
-      </c>
-      <c r="D186" t="s">
-        <v>169</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>21330051920318</v>
-      </c>
-      <c r="B187" t="s">
-        <v>102</v>
-      </c>
-      <c r="C187" t="s">
-        <v>131</v>
-      </c>
-      <c r="D187" t="s">
-        <v>169</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>21330051920319</v>
-      </c>
-      <c r="B188" t="s">
-        <v>102</v>
-      </c>
-      <c r="C188" t="s">
-        <v>114</v>
-      </c>
-      <c r="D188" t="s">
-        <v>170</v>
-      </c>
-      <c r="E188" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>21330051920319</v>
-      </c>
-      <c r="B189" t="s">
-        <v>102</v>
-      </c>
-      <c r="C189" t="s">
-        <v>114</v>
-      </c>
-      <c r="D189" t="s">
-        <v>170</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>21330051920319</v>
-      </c>
-      <c r="B190" t="s">
-        <v>102</v>
-      </c>
-      <c r="C190" t="s">
-        <v>114</v>
-      </c>
-      <c r="D190" t="s">
-        <v>170</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>21330051920319</v>
-      </c>
-      <c r="B191" t="s">
-        <v>102</v>
-      </c>
-      <c r="C191" t="s">
-        <v>114</v>
-      </c>
-      <c r="D191" t="s">
-        <v>170</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>21330051920319</v>
-      </c>
-      <c r="B192" t="s">
-        <v>102</v>
-      </c>
-      <c r="C192" t="s">
-        <v>114</v>
-      </c>
-      <c r="D192" t="s">
-        <v>170</v>
-      </c>
-      <c r="E192" t="s">
-        <v>10</v>
-      </c>
-      <c r="F192" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>21330051920319</v>
-      </c>
-      <c r="B193" t="s">
-        <v>102</v>
-      </c>
-      <c r="C193" t="s">
-        <v>114</v>
-      </c>
-      <c r="D193" t="s">
-        <v>170</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>21330051920320</v>
-      </c>
-      <c r="B194" t="s">
-        <v>103</v>
-      </c>
-      <c r="C194" t="s">
-        <v>132</v>
-      </c>
-      <c r="D194" t="s">
-        <v>171</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>21330051920320</v>
-      </c>
-      <c r="B195" t="s">
-        <v>103</v>
-      </c>
-      <c r="C195" t="s">
-        <v>132</v>
-      </c>
-      <c r="D195" t="s">
-        <v>171</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>21330051920320</v>
-      </c>
-      <c r="B196" t="s">
-        <v>103</v>
-      </c>
-      <c r="C196" t="s">
-        <v>132</v>
-      </c>
-      <c r="D196" t="s">
-        <v>171</v>
-      </c>
-      <c r="E196" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>21330051920320</v>
-      </c>
-      <c r="B197" t="s">
-        <v>103</v>
-      </c>
-      <c r="C197" t="s">
-        <v>132</v>
-      </c>
-      <c r="D197" t="s">
-        <v>171</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>21330051920320</v>
-      </c>
-      <c r="B198" t="s">
-        <v>103</v>
-      </c>
-      <c r="C198" t="s">
-        <v>132</v>
-      </c>
-      <c r="D198" t="s">
-        <v>171</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>21330051920320</v>
-      </c>
-      <c r="B199" t="s">
-        <v>103</v>
-      </c>
-      <c r="C199" t="s">
-        <v>132</v>
-      </c>
-      <c r="D199" t="s">
-        <v>171</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>21330051920321</v>
-      </c>
-      <c r="B200" t="s">
-        <v>103</v>
-      </c>
-      <c r="C200" t="s">
-        <v>133</v>
-      </c>
-      <c r="D200" t="s">
-        <v>172</v>
-      </c>
-      <c r="E200" t="s">
-        <v>8</v>
-      </c>
-      <c r="F200" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>21330051920321</v>
-      </c>
-      <c r="B201" t="s">
-        <v>103</v>
-      </c>
-      <c r="C201" t="s">
-        <v>133</v>
-      </c>
-      <c r="D201" t="s">
-        <v>172</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>21330051920321</v>
-      </c>
-      <c r="B202" t="s">
-        <v>103</v>
-      </c>
-      <c r="C202" t="s">
-        <v>133</v>
-      </c>
-      <c r="D202" t="s">
-        <v>172</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>21330051920321</v>
-      </c>
-      <c r="B203" t="s">
-        <v>103</v>
-      </c>
-      <c r="C203" t="s">
-        <v>133</v>
-      </c>
-      <c r="D203" t="s">
-        <v>172</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>21330051920321</v>
-      </c>
-      <c r="B204" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" t="s">
-        <v>133</v>
-      </c>
-      <c r="D204" t="s">
-        <v>172</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>21330051920321</v>
-      </c>
-      <c r="B205" t="s">
-        <v>103</v>
-      </c>
-      <c r="C205" t="s">
-        <v>133</v>
-      </c>
-      <c r="D205" t="s">
-        <v>172</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>21330051920322</v>
-      </c>
-      <c r="B206" t="s">
-        <v>104</v>
-      </c>
-      <c r="C206" t="s">
-        <v>134</v>
-      </c>
-      <c r="D206" t="s">
-        <v>173</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>21330051920322</v>
-      </c>
-      <c r="B207" t="s">
-        <v>104</v>
-      </c>
-      <c r="C207" t="s">
-        <v>134</v>
-      </c>
-      <c r="D207" t="s">
-        <v>173</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>21330051920322</v>
-      </c>
-      <c r="B208" t="s">
-        <v>104</v>
-      </c>
-      <c r="C208" t="s">
-        <v>134</v>
-      </c>
-      <c r="D208" t="s">
-        <v>173</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>21330051920322</v>
-      </c>
-      <c r="B209" t="s">
-        <v>104</v>
-      </c>
-      <c r="C209" t="s">
-        <v>134</v>
-      </c>
-      <c r="D209" t="s">
-        <v>173</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>21330051920322</v>
-      </c>
-      <c r="B210" t="s">
-        <v>104</v>
-      </c>
-      <c r="C210" t="s">
-        <v>134</v>
-      </c>
-      <c r="D210" t="s">
-        <v>173</v>
-      </c>
-      <c r="E210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>21330051920322</v>
-      </c>
-      <c r="B211" t="s">
-        <v>104</v>
-      </c>
-      <c r="C211" t="s">
-        <v>134</v>
-      </c>
-      <c r="D211" t="s">
-        <v>173</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>21330051920323</v>
-      </c>
-      <c r="B212" t="s">
-        <v>105</v>
-      </c>
-      <c r="C212" t="s">
-        <v>108</v>
-      </c>
-      <c r="D212" t="s">
-        <v>174</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>21330051920323</v>
-      </c>
-      <c r="B213" t="s">
-        <v>105</v>
-      </c>
-      <c r="C213" t="s">
-        <v>108</v>
-      </c>
-      <c r="D213" t="s">
-        <v>174</v>
-      </c>
-      <c r="E213" t="s">
-        <v>7</v>
-      </c>
-      <c r="F213" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>21330051920323</v>
-      </c>
-      <c r="B214" t="s">
-        <v>105</v>
-      </c>
-      <c r="C214" t="s">
-        <v>108</v>
-      </c>
-      <c r="D214" t="s">
-        <v>174</v>
-      </c>
-      <c r="E214" t="s">
-        <v>5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>21330051920323</v>
-      </c>
-      <c r="B215" t="s">
-        <v>105</v>
-      </c>
-      <c r="C215" t="s">
-        <v>108</v>
-      </c>
-      <c r="D215" t="s">
-        <v>174</v>
-      </c>
-      <c r="E215" t="s">
-        <v>6</v>
-      </c>
-      <c r="F215" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>21330051920323</v>
-      </c>
-      <c r="B216" t="s">
-        <v>105</v>
-      </c>
-      <c r="C216" t="s">
-        <v>108</v>
-      </c>
-      <c r="D216" t="s">
-        <v>174</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>21330051920323</v>
-      </c>
-      <c r="B217" t="s">
-        <v>105</v>
-      </c>
-      <c r="C217" t="s">
-        <v>108</v>
-      </c>
-      <c r="D217" t="s">
-        <v>174</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>21330051920324</v>
-      </c>
-      <c r="B218" t="s">
-        <v>106</v>
-      </c>
-      <c r="C218" t="s">
-        <v>135</v>
-      </c>
-      <c r="D218" t="s">
-        <v>175</v>
-      </c>
-      <c r="E218" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>21330051920324</v>
-      </c>
-      <c r="B219" t="s">
-        <v>106</v>
-      </c>
-      <c r="C219" t="s">
-        <v>135</v>
-      </c>
-      <c r="D219" t="s">
-        <v>175</v>
-      </c>
-      <c r="E219" t="s">
-        <v>7</v>
-      </c>
-      <c r="F219" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>21330051920324</v>
-      </c>
-      <c r="B220" t="s">
-        <v>106</v>
-      </c>
-      <c r="C220" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" t="s">
-        <v>175</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>21330051920324</v>
-      </c>
-      <c r="B221" t="s">
-        <v>106</v>
-      </c>
-      <c r="C221" t="s">
-        <v>135</v>
-      </c>
-      <c r="D221" t="s">
-        <v>175</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>21330051920324</v>
-      </c>
-      <c r="B222" t="s">
-        <v>106</v>
-      </c>
-      <c r="C222" t="s">
-        <v>135</v>
-      </c>
-      <c r="D222" t="s">
-        <v>175</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>21330051920324</v>
-      </c>
-      <c r="B223" t="s">
-        <v>106</v>
-      </c>
-      <c r="C223" t="s">
-        <v>135</v>
-      </c>
-      <c r="D223" t="s">
-        <v>175</v>
-      </c>
-      <c r="E223" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>21330051920382</v>
-      </c>
-      <c r="B224" t="s">
-        <v>107</v>
-      </c>
-      <c r="C224" t="s">
-        <v>114</v>
-      </c>
-      <c r="D224" t="s">
-        <v>176</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>21330051920382</v>
-      </c>
-      <c r="B225" t="s">
-        <v>107</v>
-      </c>
-      <c r="C225" t="s">
-        <v>114</v>
-      </c>
-      <c r="D225" t="s">
-        <v>176</v>
-      </c>
-      <c r="E225" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>21330051920382</v>
-      </c>
-      <c r="B226" t="s">
-        <v>107</v>
-      </c>
-      <c r="C226" t="s">
-        <v>114</v>
-      </c>
-      <c r="D226" t="s">
-        <v>176</v>
-      </c>
-      <c r="E226" t="s">
-        <v>5</v>
-      </c>
-      <c r="F226" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>21330051920382</v>
-      </c>
-      <c r="B227" t="s">
-        <v>107</v>
-      </c>
-      <c r="C227" t="s">
-        <v>114</v>
-      </c>
-      <c r="D227" t="s">
-        <v>176</v>
-      </c>
-      <c r="E227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>21330051920382</v>
-      </c>
-      <c r="B228" t="s">
-        <v>107</v>
-      </c>
-      <c r="C228" t="s">
-        <v>114</v>
-      </c>
-      <c r="D228" t="s">
-        <v>176</v>
-      </c>
-      <c r="E228" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>21330051920382</v>
-      </c>
-      <c r="B229" t="s">
-        <v>107</v>
-      </c>
-      <c r="C229" t="s">
-        <v>114</v>
-      </c>
-      <c r="D229" t="s">
-        <v>176</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>21330051920325</v>
-      </c>
-      <c r="B230" t="s">
-        <v>108</v>
-      </c>
-      <c r="C230" t="s">
-        <v>136</v>
-      </c>
-      <c r="D230" t="s">
-        <v>177</v>
-      </c>
-      <c r="E230" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>21330051920325</v>
-      </c>
-      <c r="B231" t="s">
-        <v>108</v>
-      </c>
-      <c r="C231" t="s">
-        <v>136</v>
-      </c>
-      <c r="D231" t="s">
-        <v>177</v>
-      </c>
-      <c r="E231" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>21330051920325</v>
-      </c>
-      <c r="B232" t="s">
-        <v>108</v>
-      </c>
-      <c r="C232" t="s">
-        <v>136</v>
-      </c>
-      <c r="D232" t="s">
-        <v>177</v>
-      </c>
-      <c r="E232" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>21330051920325</v>
-      </c>
-      <c r="B233" t="s">
-        <v>108</v>
-      </c>
-      <c r="C233" t="s">
-        <v>136</v>
-      </c>
-      <c r="D233" t="s">
-        <v>177</v>
-      </c>
-      <c r="E233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>21330051920325</v>
-      </c>
-      <c r="B234" t="s">
-        <v>108</v>
-      </c>
-      <c r="C234" t="s">
-        <v>136</v>
-      </c>
-      <c r="D234" t="s">
-        <v>177</v>
-      </c>
-      <c r="E234" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>21330051920325</v>
-      </c>
-      <c r="B235" t="s">
-        <v>108</v>
-      </c>
-      <c r="C235" t="s">
-        <v>136</v>
-      </c>
-      <c r="D235" t="s">
-        <v>177</v>
-      </c>
-      <c r="E235" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>21330051920326</v>
-      </c>
-      <c r="B236" t="s">
-        <v>109</v>
-      </c>
-      <c r="C236" t="s">
-        <v>102</v>
-      </c>
-      <c r="D236" t="s">
-        <v>178</v>
-      </c>
-      <c r="E236" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>21330051920326</v>
-      </c>
-      <c r="B237" t="s">
-        <v>109</v>
-      </c>
-      <c r="C237" t="s">
-        <v>102</v>
-      </c>
-      <c r="D237" t="s">
-        <v>178</v>
-      </c>
-      <c r="E237" t="s">
-        <v>7</v>
-      </c>
-      <c r="F237" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>21330051920326</v>
-      </c>
-      <c r="B238" t="s">
-        <v>109</v>
-      </c>
-      <c r="C238" t="s">
-        <v>102</v>
-      </c>
-      <c r="D238" t="s">
-        <v>178</v>
-      </c>
-      <c r="E238" t="s">
-        <v>5</v>
-      </c>
-      <c r="F238" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>21330051920326</v>
-      </c>
-      <c r="B239" t="s">
-        <v>109</v>
-      </c>
-      <c r="C239" t="s">
-        <v>102</v>
-      </c>
-      <c r="D239" t="s">
-        <v>178</v>
-      </c>
-      <c r="E239" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>21330051920326</v>
-      </c>
-      <c r="B240" t="s">
-        <v>109</v>
-      </c>
-      <c r="C240" t="s">
-        <v>102</v>
-      </c>
-      <c r="D240" t="s">
-        <v>178</v>
-      </c>
-      <c r="E240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>21330051920326</v>
-      </c>
-      <c r="B241" t="s">
-        <v>109</v>
-      </c>
-      <c r="C241" t="s">
-        <v>102</v>
-      </c>
-      <c r="D241" t="s">
-        <v>178</v>
-      </c>
-      <c r="E241" t="s">
-        <v>9</v>
-      </c>
-      <c r="F241" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>21330051920327</v>
-      </c>
-      <c r="B242" t="s">
-        <v>110</v>
-      </c>
-      <c r="C242" t="s">
-        <v>91</v>
-      </c>
-      <c r="D242" t="s">
-        <v>179</v>
-      </c>
-      <c r="E242" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>21330051920327</v>
-      </c>
-      <c r="B243" t="s">
-        <v>110</v>
-      </c>
-      <c r="C243" t="s">
-        <v>91</v>
-      </c>
-      <c r="D243" t="s">
-        <v>179</v>
-      </c>
-      <c r="E243" t="s">
-        <v>7</v>
-      </c>
-      <c r="F243" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>21330051920327</v>
-      </c>
-      <c r="B244" t="s">
-        <v>110</v>
-      </c>
-      <c r="C244" t="s">
-        <v>91</v>
-      </c>
-      <c r="D244" t="s">
-        <v>179</v>
-      </c>
-      <c r="E244" t="s">
-        <v>5</v>
-      </c>
-      <c r="F244" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>21330051920327</v>
-      </c>
-      <c r="B245" t="s">
-        <v>110</v>
-      </c>
-      <c r="C245" t="s">
-        <v>91</v>
-      </c>
-      <c r="D245" t="s">
-        <v>179</v>
-      </c>
-      <c r="E245" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>21330051920327</v>
-      </c>
-      <c r="B246" t="s">
-        <v>110</v>
-      </c>
-      <c r="C246" t="s">
-        <v>91</v>
-      </c>
-      <c r="D246" t="s">
-        <v>179</v>
-      </c>
-      <c r="E246" t="s">
-        <v>10</v>
-      </c>
-      <c r="F246" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>21330051920327</v>
-      </c>
-      <c r="B247" t="s">
-        <v>110</v>
-      </c>
-      <c r="C247" t="s">
-        <v>91</v>
-      </c>
-      <c r="D247" t="s">
-        <v>179</v>
-      </c>
-      <c r="E247" t="s">
-        <v>9</v>
-      </c>
-      <c r="F247" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>21330051920328</v>
-      </c>
-      <c r="B248" t="s">
-        <v>111</v>
-      </c>
-      <c r="C248" t="s">
-        <v>137</v>
-      </c>
-      <c r="D248" t="s">
-        <v>180</v>
-      </c>
-      <c r="E248" t="s">
-        <v>8</v>
-      </c>
-      <c r="F248" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>21330051920328</v>
-      </c>
-      <c r="B249" t="s">
-        <v>111</v>
-      </c>
-      <c r="C249" t="s">
-        <v>137</v>
-      </c>
-      <c r="D249" t="s">
-        <v>180</v>
-      </c>
-      <c r="E249" t="s">
-        <v>7</v>
-      </c>
-      <c r="F249" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>21330051920328</v>
-      </c>
-      <c r="B250" t="s">
-        <v>111</v>
-      </c>
-      <c r="C250" t="s">
-        <v>137</v>
-      </c>
-      <c r="D250" t="s">
-        <v>180</v>
-      </c>
-      <c r="E250" t="s">
-        <v>5</v>
-      </c>
-      <c r="F250" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>21330051920328</v>
-      </c>
-      <c r="B251" t="s">
-        <v>111</v>
-      </c>
-      <c r="C251" t="s">
-        <v>137</v>
-      </c>
-      <c r="D251" t="s">
-        <v>180</v>
-      </c>
-      <c r="E251" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>21330051920328</v>
-      </c>
-      <c r="B252" t="s">
-        <v>111</v>
-      </c>
-      <c r="C252" t="s">
-        <v>137</v>
-      </c>
-      <c r="D252" t="s">
-        <v>180</v>
-      </c>
-      <c r="E252" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>21330051920328</v>
-      </c>
-      <c r="B253" t="s">
-        <v>111</v>
-      </c>
-      <c r="C253" t="s">
-        <v>137</v>
-      </c>
-      <c r="D253" t="s">
-        <v>180</v>
-      </c>
-      <c r="E253" t="s">
-        <v>9</v>
-      </c>
-      <c r="F253" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>21330051920329</v>
-      </c>
-      <c r="B254" t="s">
-        <v>112</v>
-      </c>
-      <c r="C254" t="s">
-        <v>138</v>
-      </c>
-      <c r="D254" t="s">
-        <v>181</v>
-      </c>
-      <c r="E254" t="s">
-        <v>8</v>
-      </c>
-      <c r="F254" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>21330051920329</v>
-      </c>
-      <c r="B255" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" t="s">
-        <v>138</v>
-      </c>
-      <c r="D255" t="s">
-        <v>181</v>
-      </c>
-      <c r="E255" t="s">
-        <v>7</v>
-      </c>
-      <c r="F255" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>21330051920329</v>
-      </c>
-      <c r="B256" t="s">
-        <v>112</v>
-      </c>
-      <c r="C256" t="s">
-        <v>138</v>
-      </c>
-      <c r="D256" t="s">
-        <v>181</v>
-      </c>
-      <c r="E256" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>21330051920329</v>
-      </c>
-      <c r="B257" t="s">
-        <v>112</v>
-      </c>
-      <c r="C257" t="s">
-        <v>138</v>
-      </c>
-      <c r="D257" t="s">
-        <v>181</v>
-      </c>
-      <c r="E257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>21330051920329</v>
-      </c>
-      <c r="B258" t="s">
-        <v>112</v>
-      </c>
-      <c r="C258" t="s">
-        <v>138</v>
-      </c>
-      <c r="D258" t="s">
-        <v>181</v>
-      </c>
-      <c r="E258" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>21330051920329</v>
-      </c>
-      <c r="B259" t="s">
-        <v>112</v>
-      </c>
-      <c r="C259" t="s">
-        <v>138</v>
-      </c>
-      <c r="D259" t="s">
-        <v>181</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260">
-        <v>21330051920330</v>
-      </c>
-      <c r="B260" t="s">
-        <v>113</v>
-      </c>
-      <c r="C260" t="s">
-        <v>139</v>
-      </c>
-      <c r="D260" t="s">
-        <v>182</v>
-      </c>
-      <c r="E260" t="s">
-        <v>8</v>
-      </c>
-      <c r="F260" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
-        <v>21330051920330</v>
-      </c>
-      <c r="B261" t="s">
-        <v>113</v>
-      </c>
-      <c r="C261" t="s">
-        <v>139</v>
-      </c>
-      <c r="D261" t="s">
-        <v>182</v>
-      </c>
-      <c r="E261" t="s">
-        <v>7</v>
-      </c>
-      <c r="F261" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
-        <v>21330051920330</v>
-      </c>
-      <c r="B262" t="s">
-        <v>113</v>
-      </c>
-      <c r="C262" t="s">
-        <v>139</v>
-      </c>
-      <c r="D262" t="s">
-        <v>182</v>
-      </c>
-      <c r="E262" t="s">
-        <v>5</v>
-      </c>
-      <c r="F262" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263">
-        <v>21330051920330</v>
-      </c>
-      <c r="B263" t="s">
-        <v>113</v>
-      </c>
-      <c r="C263" t="s">
-        <v>139</v>
-      </c>
-      <c r="D263" t="s">
-        <v>182</v>
-      </c>
-      <c r="E263" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264">
-        <v>21330051920330</v>
-      </c>
-      <c r="B264" t="s">
-        <v>113</v>
-      </c>
-      <c r="C264" t="s">
-        <v>139</v>
-      </c>
-      <c r="D264" t="s">
-        <v>182</v>
-      </c>
-      <c r="E264" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265">
-        <v>21330051920330</v>
-      </c>
-      <c r="B265" t="s">
-        <v>113</v>
-      </c>
-      <c r="C265" t="s">
-        <v>139</v>
-      </c>
-      <c r="D265" t="s">
-        <v>182</v>
-      </c>
-      <c r="E265" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10008,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10020,104 +5654,104 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>21330051920289</v>
+        <v>21330051920296</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>21330051920290</v>
+        <v>20330051920235</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21330051920291</v>
+        <v>21330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>21330051920292</v>
+        <v>21330051920325</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>21330051920293</v>
+        <v>21330051920289</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10125,16 +5759,16 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10142,169 +5776,169 @@
         <v>21330051920295</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>21330051920296</v>
+        <v>21330051920297</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>21330051920297</v>
+        <v>21330051920299</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>21330051920298</v>
+        <v>21330051920304</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>21330051920299</v>
+        <v>21330051920306</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>21330051920300</v>
+        <v>21330051920324</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>21330051920301</v>
+        <v>21330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21330051920302</v>
+        <v>21330051920330</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21330051920303</v>
+        <v>21330051920291</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21330051920304</v>
+        <v>21330051920298</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10312,441 +5946,441 @@
         <v>21330051920305</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21330051920306</v>
+        <v>21330051920311</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920235</v>
+        <v>21330051920312</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920307</v>
+        <v>21330051920319</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920308</v>
+        <v>21330051920326</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="D22" t="s">
-        <v>160</v>
-      </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920309</v>
+        <v>21330051920327</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920310</v>
+        <v>21330051920290</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920311</v>
+        <v>21330051920292</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920312</v>
+        <v>21330051920293</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920313</v>
+        <v>21330051920300</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920314</v>
+        <v>21330051920301</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920315</v>
+        <v>21330051920302</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920316</v>
+        <v>21330051920303</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920317</v>
+        <v>21330051920307</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21330051920318</v>
+        <v>21330051920308</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21330051920319</v>
+        <v>21330051920310</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21330051920320</v>
+        <v>21330051920313</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21330051920321</v>
+        <v>21330051920314</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21330051920322</v>
+        <v>21330051920315</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21330051920323</v>
+        <v>21330051920316</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21330051920324</v>
+        <v>21330051920317</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21330051920382</v>
+        <v>21330051920318</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21330051920325</v>
+        <v>21330051920320</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21330051920326</v>
+        <v>21330051920321</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21330051920327</v>
+        <v>21330051920322</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21330051920328</v>
+        <v>21330051920323</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10754,33 +6388,16 @@
         <v>21330051920329</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>21330051920330</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10790,7 +6407,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10802,22 +6419,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -10828,19 +6445,19 @@
         <v>21330051920295</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -10851,19 +6468,19 @@
         <v>21330051920295</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -10874,19 +6491,19 @@
         <v>21330051920297</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -10897,19 +6514,19 @@
         <v>21330051920297</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -10920,19 +6537,19 @@
         <v>21330051920299</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -10943,19 +6560,19 @@
         <v>21330051920299</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -10966,19 +6583,19 @@
         <v>21330051920304</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -10989,19 +6606,19 @@
         <v>21330051920304</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -11012,19 +6629,19 @@
         <v>21330051920306</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -11035,19 +6652,19 @@
         <v>21330051920306</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -11055,22 +6672,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920323</v>
+        <v>21330051920324</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -11078,19 +6695,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>21330051920323</v>
+        <v>21330051920324</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -11101,45 +6718,45 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>21330051920324</v>
+        <v>21330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>21330051920324</v>
+        <v>21330051920327</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -11147,42 +6764,42 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>21330051920327</v>
+        <v>21330051920328</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>21330051920327</v>
+        <v>21330051920328</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
@@ -11193,22 +6810,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>21330051920328</v>
+        <v>21330051920330</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -11216,22 +6833,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>21330051920328</v>
+        <v>21330051920330</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -11239,22 +6856,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>21330051920330</v>
+        <v>21330051920291</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -11262,22 +6879,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>21330051920330</v>
+        <v>21330051920298</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -11285,22 +6902,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>21330051920291</v>
+        <v>21330051920305</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -11308,22 +6925,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>21330051920298</v>
+        <v>21330051920311</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -11331,22 +6948,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21330051920301</v>
+        <v>21330051920312</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -11354,22 +6971,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21330051920303</v>
+        <v>21330051920319</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -11377,139 +6994,24 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>21330051920305</v>
+        <v>21330051920326</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>21330051920308</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>21330051920311</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>21330051920312</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>21330051920319</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>21330051920326</v>
-      </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/1EM - Estadisticos 20211.xlsx
+++ b/grupos/1EM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="180">
   <si>
     <t>Materia</t>
   </si>
@@ -278,256 +278,256 @@
     <t>OFICIAL</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>GAMBINO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>NEGRETE</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>VILLASEÑOR</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>CARLOS EMILIO</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>ATZIRI</t>
+  </si>
+  <si>
+    <t>EDNA</t>
+  </si>
+  <si>
+    <t>AMISADAI</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>DARLA MARLENE</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>ANETTE JOCELYN</t>
+  </si>
+  <si>
+    <t>JOSE RAFAEL</t>
+  </si>
+  <si>
+    <t>ADAL</t>
+  </si>
+  <si>
+    <t>MONICA AIME</t>
+  </si>
+  <si>
+    <t>SAYURI BETSABE</t>
+  </si>
+  <si>
+    <t>ANDRIK YOSIMAR</t>
+  </si>
+  <si>
+    <t>YULIANA YAMILETT</t>
+  </si>
+  <si>
+    <t>IVANNA DANIELA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>KARINA YOSELIN</t>
+  </si>
+  <si>
+    <t>ROSA ITZEL</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
     <t>OLMOS</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>GAMBINO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GIL</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>NEGRETE</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>VILLASEÑOR</t>
-  </si>
-  <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>NIETO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>RUTH</t>
-  </si>
-  <si>
-    <t>CARLOS EMILIO</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>ATZIRI</t>
-  </si>
-  <si>
-    <t>EDNA</t>
-  </si>
-  <si>
-    <t>AMISADAI</t>
-  </si>
-  <si>
-    <t>ZURISADAI</t>
-  </si>
-  <si>
-    <t>DARLA MARLENE</t>
-  </si>
-  <si>
-    <t>MARIA MICHELLE</t>
-  </si>
-  <si>
-    <t>ANETTE JOCELYN</t>
-  </si>
-  <si>
-    <t>JOSE RAFAEL</t>
-  </si>
-  <si>
-    <t>ADAL</t>
-  </si>
-  <si>
-    <t>MONICA AIME</t>
+    <t>PALAFOX</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>MONGE</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>FLOURENS</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>AXEL EDUARDO</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>AMY JULIET</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>YAMILET MONSERRAT</t>
+  </si>
+  <si>
+    <t>YULIET</t>
+  </si>
+  <si>
+    <t>DIANA CRISTINA</t>
+  </si>
+  <si>
+    <t>ANGEL DIEGO</t>
+  </si>
+  <si>
+    <t>SAIRA LEILANI</t>
   </si>
   <si>
     <t>ARACELY</t>
-  </si>
-  <si>
-    <t>SAYURI BETSABE</t>
-  </si>
-  <si>
-    <t>ANDRIK YOSIMAR</t>
-  </si>
-  <si>
-    <t>YULIANA YAMILETT</t>
-  </si>
-  <si>
-    <t>IVANNA DANIELA</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>KARINA YOSELIN</t>
-  </si>
-  <si>
-    <t>ROSA ITZEL</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MOTA</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>PALAFOX</t>
-  </si>
-  <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>MONGE</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>FLOURENS</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>JAZMIN</t>
-  </si>
-  <si>
-    <t>AXEL EDUARDO</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>AMY JULIET</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS</t>
-  </si>
-  <si>
-    <t>YAMILET MONSERRAT</t>
-  </si>
-  <si>
-    <t>YULIET</t>
-  </si>
-  <si>
-    <t>DIANA CRISTINA</t>
-  </si>
-  <si>
-    <t>ANGEL DIEGO</t>
-  </si>
-  <si>
-    <t>SAIRA LEILANI</t>
   </si>
   <si>
     <t>LUIS ANGEL</t>
@@ -2823,7 +2823,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -2877,7 +2877,7 @@
         <v>8</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W27">
         <v>9</v>
@@ -4417,13 +4417,13 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4432,10 +4432,10 @@
         <v>7.4</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4605,7 +4605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4643,10 +4643,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4663,10 +4663,10 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -4683,10 +4683,10 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4703,10 +4703,10 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -4723,10 +4723,10 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -4743,10 +4743,10 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -4763,10 +4763,10 @@
         <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -4783,10 +4783,10 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -4803,10 +4803,10 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -4823,10 +4823,10 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -4843,10 +4843,10 @@
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -4863,10 +4863,10 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -4883,10 +4883,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -4903,10 +4903,10 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -4926,7 +4926,7 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -4946,7 +4946,7 @@
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4963,10 +4963,10 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -4983,10 +4983,10 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -5003,10 +5003,10 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -5023,10 +5023,10 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -5043,10 +5043,10 @@
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -5063,10 +5063,10 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -5083,10 +5083,10 @@
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -5103,10 +5103,10 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -5123,10 +5123,10 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -5143,10 +5143,10 @@
         <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -5163,10 +5163,10 @@
         <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -5183,10 +5183,10 @@
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -5203,10 +5203,10 @@
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -5223,10 +5223,10 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -5243,10 +5243,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -5263,10 +5263,10 @@
         <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -5283,10 +5283,10 @@
         <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -5303,10 +5303,10 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -5323,10 +5323,10 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -5337,16 +5337,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>21330051920312</v>
+        <v>21330051920319</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -5357,16 +5357,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>21330051920319</v>
+        <v>21330051920324</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -5380,24 +5380,24 @@
         <v>21330051920324</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>21330051920324</v>
+        <v>21330051920325</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
@@ -5406,13 +5406,13 @@
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5420,19 +5420,19 @@
         <v>21330051920325</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5440,19 +5440,19 @@
         <v>21330051920325</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5460,19 +5460,19 @@
         <v>21330051920325</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5480,53 +5480,53 @@
         <v>21330051920325</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>21330051920325</v>
+        <v>21330051920326</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>21330051920326</v>
+        <v>21330051920327</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>21330051920327</v>
+        <v>21330051920328</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -5546,13 +5546,13 @@
         <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5560,24 +5560,24 @@
         <v>21330051920328</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>21330051920328</v>
+        <v>21330051920330</v>
       </c>
       <c r="B49" t="s">
         <v>92</v>
@@ -5586,13 +5586,13 @@
         <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5600,38 +5600,18 @@
         <v>21330051920330</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>21330051920330</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5677,10 +5657,10 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5694,10 +5674,10 @@
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5711,10 +5691,10 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5725,13 +5705,13 @@
         <v>21330051920325</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5745,10 +5725,10 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -5762,10 +5742,10 @@
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5779,10 +5759,10 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -5799,7 +5779,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -5813,10 +5793,10 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5830,10 +5810,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5847,10 +5827,10 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5861,13 +5841,13 @@
         <v>21330051920324</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5878,13 +5858,13 @@
         <v>21330051920328</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5895,13 +5875,13 @@
         <v>21330051920330</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -5915,10 +5895,10 @@
         <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5932,10 +5912,10 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5949,10 +5929,10 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5966,10 +5946,10 @@
         <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5977,16 +5957,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21330051920312</v>
+        <v>21330051920319</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5994,16 +5974,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21330051920319</v>
+        <v>21330051920326</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6011,16 +5991,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21330051920326</v>
+        <v>21330051920327</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -6028,30 +6008,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21330051920327</v>
+        <v>21330051920290</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21330051920290</v>
+        <v>21330051920292</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
         <v>160</v>
@@ -6062,13 +6042,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21330051920292</v>
+        <v>21330051920293</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
         <v>161</v>
@@ -6079,13 +6059,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21330051920293</v>
+        <v>21330051920300</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
         <v>162</v>
@@ -6096,10 +6076,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21330051920300</v>
+        <v>21330051920301</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
         <v>147</v>
@@ -6113,10 +6093,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21330051920301</v>
+        <v>21330051920302</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
         <v>148</v>
@@ -6130,13 +6110,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21330051920302</v>
+        <v>21330051920303</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>165</v>
@@ -6147,13 +6127,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21330051920303</v>
+        <v>21330051920307</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
         <v>166</v>
@@ -6164,10 +6144,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21330051920307</v>
+        <v>21330051920308</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>150</v>
@@ -6181,13 +6161,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21330051920308</v>
+        <v>21330051920310</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
         <v>168</v>
@@ -6198,13 +6178,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21330051920310</v>
+        <v>21330051920312</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>169</v>
@@ -6218,7 +6198,7 @@
         <v>21330051920313</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>84</v>
@@ -6235,10 +6215,10 @@
         <v>21330051920314</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
         <v>171</v>
@@ -6252,10 +6232,10 @@
         <v>21330051920315</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>172</v>
@@ -6269,10 +6249,10 @@
         <v>21330051920316</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
         <v>170</v>
@@ -6286,10 +6266,10 @@
         <v>21330051920317</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
         <v>173</v>
@@ -6303,10 +6283,10 @@
         <v>21330051920318</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
         <v>174</v>
@@ -6320,10 +6300,10 @@
         <v>21330051920320</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
         <v>175</v>
@@ -6337,10 +6317,10 @@
         <v>21330051920321</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
         <v>176</v>
@@ -6354,10 +6334,10 @@
         <v>21330051920322</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
         <v>177</v>
@@ -6371,10 +6351,10 @@
         <v>21330051920323</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>178</v>
@@ -6388,10 +6368,10 @@
         <v>21330051920329</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
         <v>179</v>
@@ -6407,7 +6387,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6448,10 +6428,10 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6471,10 +6451,10 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -6497,7 +6477,7 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -6520,7 +6500,7 @@
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -6540,10 +6520,10 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -6563,10 +6543,10 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -6586,10 +6566,10 @@
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -6609,10 +6589,10 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -6632,10 +6612,10 @@
         <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -6655,10 +6635,10 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -6675,13 +6655,13 @@
         <v>21330051920324</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -6698,13 +6678,13 @@
         <v>21330051920324</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -6721,13 +6701,13 @@
         <v>21330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -6744,13 +6724,13 @@
         <v>21330051920327</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -6767,13 +6747,13 @@
         <v>21330051920328</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -6790,13 +6770,13 @@
         <v>21330051920328</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -6813,13 +6793,13 @@
         <v>21330051920330</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -6836,13 +6816,13 @@
         <v>21330051920330</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -6862,10 +6842,10 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -6885,10 +6865,10 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -6908,10 +6888,10 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -6931,10 +6911,10 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -6948,16 +6928,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>21330051920312</v>
+        <v>21330051920319</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -6971,47 +6951,24 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>21330051920319</v>
+        <v>21330051920326</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>21330051920326</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26">
         <v>-1</v>
       </c>
     </row>
